--- a/Excel/Chapter/StartChapter@p.xlsx
+++ b/Excel/Chapter/StartChapter@p.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\Chapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880414C8-79BB-4FB3-B3C4-CE8F7BBDE3D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="6" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -192,13 +191,17 @@
   </si>
   <si>
     <t>test English？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMessageWindow</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -314,7 +317,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,18 +589,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
@@ -815,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>

--- a/Excel/Chapter/StartChapter@p.xlsx
+++ b/Excel/Chapter/StartChapter@p.xlsx
@@ -214,12 +214,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/Chapter/StartChapter@p.xlsx
+++ b/Excel/Chapter/StartChapter@p.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\Chapter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809"/>
+    <workbookView windowWidth="26880" windowHeight="12684" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>cs</t>
   </si>
@@ -123,6 +131,9 @@
     <t>&lt;b&gt;&lt;size=60&gt;【2022年 4月 5日 北欧境内某片森林中】</t>
   </si>
   <si>
+    <t>&lt;b&gt;&lt;size=60&gt;【test English】</t>
+  </si>
+  <si>
     <t>MessageWindow</t>
   </si>
   <si>
@@ -135,12 +146,21 @@
     <t>魔力注入</t>
   </si>
   <si>
+    <t>test English</t>
+  </si>
+  <si>
     <t>，时光回溯</t>
   </si>
   <si>
+    <t>,test English</t>
+  </si>
+  <si>
     <t>起！</t>
   </si>
   <si>
+    <t>test English！</t>
+  </si>
+  <si>
     <t>HideMessageWindow</t>
   </si>
   <si>
@@ -159,6 +179,9 @@
     <t>我是谁？</t>
   </si>
   <si>
+    <t>test English？</t>
+  </si>
+  <si>
     <t>这里是什么地方？</t>
   </si>
   <si>
@@ -172,37 +195,19 @@
   </si>
   <si>
     <t>EndScenario</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;size=60&gt;【test English】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test English</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>,test English</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test English！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test English？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowMessageWindow</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,14 +219,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -240,7 +243,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -249,30 +252,151 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +409,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,20 +604,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -315,20 +867,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -586,38 +1181,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="21.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="52.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="52.875" customWidth="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.8796296296296" style="1" customWidth="1"/>
+    <col min="16" max="16" width="52.8796296296296" customWidth="1"/>
     <col min="17" max="17" width="26.75" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +1224,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -639,7 +1234,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
+    <row r="3" ht="16.2" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -681,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" ht="16.2" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -727,7 +1322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
+    <row r="5" ht="16.2" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -773,7 +1368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="3:15">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -794,7 +1389,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="3:15">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -815,12 +1410,12 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="3:13">
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -832,7 +1427,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="3:16">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -852,11 +1447,11 @@
       <c r="O9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18">
+      <c r="P9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="17.4" spans="3:16">
       <c r="C10" s="4">
         <v>5</v>
       </c>
@@ -871,16 +1466,16 @@
       <c r="L10" s="7"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="17.4" spans="3:16">
       <c r="C11" s="4">
         <v>6</v>
       </c>
@@ -893,18 +1488,18 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18">
+        <v>38</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="17.4" spans="3:16">
       <c r="C12" s="4">
         <v>7</v>
       </c>
@@ -920,13 +1515,13 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13" s="4">
         <v>8</v>
       </c>
@@ -941,13 +1536,13 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -962,18 +1557,18 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
@@ -988,12 +1583,12 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="3:16">
       <c r="C16" s="4">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
@@ -1018,7 +1613,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1042,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1096,13 +1691,13 @@
         <v>32</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" ht="15" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="3:16">
       <c r="C21" s="4">
         <v>16</v>
       </c>
@@ -1115,20 +1710,20 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" ht="15" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="3:16">
       <c r="C22" s="4">
         <v>17</v>
       </c>
@@ -1144,10 +1739,10 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:16">
@@ -1155,10 +1750,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1176,12 +1771,12 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="3:16">
+    <row r="24" spans="3:15">
       <c r="C24" s="4">
         <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1197,12 +1792,12 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="3:16">
+    <row r="25" spans="3:15">
       <c r="C25" s="4">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1216,12 +1811,12 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="3:16">
+    <row r="26" spans="3:15">
       <c r="C26" s="4">
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1236,8 +1831,8 @@
       <c r="O26" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>